--- a/REGULAR/CASUAL-REGULAR FINAL/ANARNA, CRISTINA.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/ANARNA, CRISTINA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092AFD5C-0AA8-4EBB-9233-B7E3A3C00CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="213">
   <si>
     <t>PERIOD</t>
   </si>
@@ -670,12 +669,15 @@
   </si>
   <si>
     <t>PICNIC GROVE</t>
+  </si>
+  <si>
+    <t>7/29,30/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1380,7 +1382,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1397,25 +1399,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K459" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K459" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1722,34 +1724,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K459"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4116" topLeftCell="A394"/>
+      <pane ySplit="4245" topLeftCell="A394" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="C399" sqref="C399"/>
+      <selection pane="bottomLeft" activeCell="I397" sqref="I397"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1770,7 +1772,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1790,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1810,7 +1812,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1818,7 +1820,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1831,7 +1833,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -1848,7 +1850,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1892,7 +1894,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>189.85000000000005</v>
+        <v>191.10000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1902,12 +1904,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>343.16699999999997</v>
+        <v>341.16699999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>56</v>
       </c>
@@ -1931,7 +1933,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>34942</v>
       </c>
@@ -1951,7 +1953,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>34972</v>
       </c>
@@ -1971,7 +1973,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>35003</v>
       </c>
@@ -1991,7 +1993,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>35033</v>
       </c>
@@ -2011,7 +2013,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>35064</v>
       </c>
@@ -2035,7 +2037,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>57</v>
       </c>
@@ -2053,7 +2055,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>35095</v>
       </c>
@@ -2073,7 +2075,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>35124</v>
       </c>
@@ -2093,7 +2095,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>35155</v>
       </c>
@@ -2113,7 +2115,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>35185</v>
       </c>
@@ -2133,7 +2135,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>35216</v>
       </c>
@@ -2153,7 +2155,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>35246</v>
       </c>
@@ -2173,7 +2175,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>35277</v>
       </c>
@@ -2193,7 +2195,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>35308</v>
       </c>
@@ -2213,7 +2215,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>35338</v>
       </c>
@@ -2233,7 +2235,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>35369</v>
       </c>
@@ -2253,7 +2255,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>35399</v>
       </c>
@@ -2273,7 +2275,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>35430</v>
       </c>
@@ -2297,7 +2299,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>58</v>
       </c>
@@ -2315,7 +2317,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>35461</v>
       </c>
@@ -2335,7 +2337,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>35489</v>
       </c>
@@ -2355,7 +2357,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>35520</v>
       </c>
@@ -2381,7 +2383,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>35550</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>35581</v>
       </c>
@@ -2427,7 +2429,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>35611</v>
       </c>
@@ -2447,7 +2449,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>35642</v>
       </c>
@@ -2467,7 +2469,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>35673</v>
       </c>
@@ -2487,7 +2489,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>35703</v>
       </c>
@@ -2511,7 +2513,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>35734</v>
       </c>
@@ -2537,7 +2539,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="20" t="s">
         <v>54</v>
@@ -2559,7 +2561,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>35764</v>
       </c>
@@ -2581,7 +2583,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>35795</v>
       </c>
@@ -2605,7 +2607,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="20" t="s">
         <v>71</v>
@@ -2625,7 +2627,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>72</v>
       </c>
@@ -2643,7 +2645,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>35826</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>35827</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="20" t="s">
         <v>54</v>
@@ -2691,7 +2693,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <v>35854</v>
       </c>
@@ -2711,7 +2713,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>35885</v>
       </c>
@@ -2731,7 +2733,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>35915</v>
       </c>
@@ -2751,7 +2753,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>35946</v>
       </c>
@@ -2771,7 +2773,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>35976</v>
       </c>
@@ -2791,7 +2793,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>36007</v>
       </c>
@@ -2811,7 +2813,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <v>36038</v>
       </c>
@@ -2831,7 +2833,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <v>36068</v>
       </c>
@@ -2851,7 +2853,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>36099</v>
       </c>
@@ -2871,7 +2873,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <v>36129</v>
       </c>
@@ -2891,7 +2893,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <v>36160</v>
       </c>
@@ -2915,7 +2917,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>74</v>
       </c>
@@ -2933,7 +2935,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>36191</v>
       </c>
@@ -2953,7 +2955,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <v>36219</v>
       </c>
@@ -2973,7 +2975,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>36250</v>
       </c>
@@ -2993,7 +2995,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <v>36280</v>
       </c>
@@ -3013,7 +3015,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
         <v>36311</v>
       </c>
@@ -3033,7 +3035,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>36341</v>
       </c>
@@ -3053,7 +3055,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>36372</v>
       </c>
@@ -3073,7 +3075,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <v>36403</v>
       </c>
@@ -3093,7 +3095,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <v>36433</v>
       </c>
@@ -3113,7 +3115,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <v>36464</v>
       </c>
@@ -3133,7 +3135,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <v>36494</v>
       </c>
@@ -3159,7 +3161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>36525</v>
       </c>
@@ -3183,7 +3185,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
         <v>81</v>
       </c>
@@ -3201,7 +3203,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <v>36556</v>
       </c>
@@ -3221,7 +3223,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>36585</v>
       </c>
@@ -3247,7 +3249,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="20" t="s">
         <v>75</v>
@@ -3269,7 +3271,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
         <v>36616</v>
       </c>
@@ -3293,7 +3295,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>36646</v>
       </c>
@@ -3313,7 +3315,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>36677</v>
       </c>
@@ -3333,7 +3335,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <v>36707</v>
       </c>
@@ -3353,7 +3355,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <v>36738</v>
       </c>
@@ -3373,7 +3375,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <v>36769</v>
       </c>
@@ -3393,7 +3395,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <v>36799</v>
       </c>
@@ -3413,7 +3415,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <v>36830</v>
       </c>
@@ -3433,7 +3435,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>36860</v>
       </c>
@@ -3453,7 +3455,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <v>36891</v>
       </c>
@@ -3477,7 +3479,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="47" t="s">
         <v>85</v>
       </c>
@@ -3495,7 +3497,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <v>36922</v>
       </c>
@@ -3515,7 +3517,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <v>36950</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="20" t="s">
         <v>86</v>
@@ -3563,7 +3565,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
         <v>46</v>
@@ -3583,7 +3585,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <v>36981</v>
       </c>
@@ -3603,7 +3605,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <v>37011</v>
       </c>
@@ -3623,7 +3625,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>37042</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <v>37072</v>
       </c>
@@ -3669,7 +3671,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <v>37103</v>
       </c>
@@ -3693,7 +3695,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <v>37134</v>
       </c>
@@ -3713,7 +3715,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>37164</v>
       </c>
@@ -3737,7 +3739,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <v>37195</v>
       </c>
@@ -3761,7 +3763,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <v>37225</v>
       </c>
@@ -3781,7 +3783,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <v>37256</v>
       </c>
@@ -3801,7 +3803,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
         <v>94</v>
       </c>
@@ -3819,7 +3821,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <v>37287</v>
       </c>
@@ -3839,7 +3841,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <v>37315</v>
       </c>
@@ -3859,7 +3861,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <v>37346</v>
       </c>
@@ -3879,7 +3881,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <v>37376</v>
       </c>
@@ -3899,7 +3901,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <v>37407</v>
       </c>
@@ -3919,7 +3921,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <v>37437</v>
       </c>
@@ -3939,7 +3941,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
         <v>37468</v>
       </c>
@@ -3959,7 +3961,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <v>37499</v>
       </c>
@@ -3979,7 +3981,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
         <v>37529</v>
       </c>
@@ -3999,7 +4001,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <v>37560</v>
       </c>
@@ -4025,7 +4027,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
         <v>37590</v>
       </c>
@@ -4045,7 +4047,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
         <v>37621</v>
       </c>
@@ -4069,7 +4071,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
         <v>96</v>
       </c>
@@ -4087,7 +4089,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
         <v>37652</v>
       </c>
@@ -4107,7 +4109,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <v>37680</v>
       </c>
@@ -4127,7 +4129,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
         <v>37711</v>
       </c>
@@ -4147,7 +4149,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <v>37741</v>
       </c>
@@ -4167,7 +4169,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <v>37772</v>
       </c>
@@ -4187,7 +4189,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <v>37802</v>
       </c>
@@ -4211,7 +4213,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <v>37833</v>
       </c>
@@ -4235,7 +4237,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <v>37864</v>
       </c>
@@ -4255,7 +4257,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
         <v>37894</v>
       </c>
@@ -4279,7 +4281,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <v>37925</v>
       </c>
@@ -4303,7 +4305,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
         <v>37955</v>
       </c>
@@ -4329,7 +4331,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
         <v>37986</v>
       </c>
@@ -4349,7 +4351,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
         <v>100</v>
       </c>
@@ -4367,7 +4369,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
         <v>38017</v>
       </c>
@@ -4387,7 +4389,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
         <v>38046</v>
       </c>
@@ -4411,7 +4413,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39">
         <v>38077</v>
       </c>
@@ -4435,7 +4437,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>38107</v>
       </c>
@@ -4455,7 +4457,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>38138</v>
       </c>
@@ -4475,7 +4477,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
         <v>38168</v>
       </c>
@@ -4499,7 +4501,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39">
         <v>38199</v>
       </c>
@@ -4525,7 +4527,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39">
         <v>38230</v>
       </c>
@@ -4549,7 +4551,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39">
         <v>38260</v>
       </c>
@@ -4573,7 +4575,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="39"/>
       <c r="B136" s="20" t="s">
         <v>106</v>
@@ -4593,7 +4595,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39">
         <v>38291</v>
       </c>
@@ -4613,7 +4615,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39">
         <v>38321</v>
       </c>
@@ -4633,7 +4635,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39">
         <v>38352</v>
       </c>
@@ -4653,7 +4655,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>105</v>
       </c>
@@ -4671,7 +4673,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="39">
         <v>38383</v>
       </c>
@@ -4691,7 +4693,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="39">
         <v>38411</v>
       </c>
@@ -4711,7 +4713,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="39">
         <v>38442</v>
       </c>
@@ -4731,7 +4733,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="39">
         <v>38472</v>
       </c>
@@ -4751,7 +4753,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="39">
         <v>38503</v>
       </c>
@@ -4771,7 +4773,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="39">
         <v>38533</v>
       </c>
@@ -4791,7 +4793,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="39">
         <v>38564</v>
       </c>
@@ -4811,7 +4813,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="39">
         <v>38595</v>
       </c>
@@ -4837,7 +4839,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="39">
         <v>38625</v>
       </c>
@@ -4857,7 +4859,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="39">
         <v>38656</v>
       </c>
@@ -4877,7 +4879,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="39">
         <v>38686</v>
       </c>
@@ -4897,7 +4899,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="39">
         <v>38717</v>
       </c>
@@ -4917,7 +4919,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>108</v>
       </c>
@@ -4935,7 +4937,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="39">
         <v>38748</v>
       </c>
@@ -4955,7 +4957,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="39">
         <v>38776</v>
       </c>
@@ -4975,7 +4977,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="39">
         <v>38807</v>
       </c>
@@ -4995,7 +4997,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="39">
         <v>38837</v>
       </c>
@@ -5015,7 +5017,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="39">
         <v>38868</v>
       </c>
@@ -5035,7 +5037,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="39">
         <v>38898</v>
       </c>
@@ -5055,7 +5057,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="39">
         <v>38929</v>
       </c>
@@ -5081,7 +5083,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <v>38960</v>
       </c>
@@ -5101,7 +5103,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="39">
         <v>38990</v>
       </c>
@@ -5121,7 +5123,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="39">
         <v>39021</v>
       </c>
@@ -5141,7 +5143,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="39">
         <v>39051</v>
       </c>
@@ -5161,7 +5163,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="39">
         <v>39082</v>
       </c>
@@ -5181,7 +5183,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="47" t="s">
         <v>110</v>
       </c>
@@ -5199,7 +5201,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="39">
         <v>39113</v>
       </c>
@@ -5219,7 +5221,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="39">
         <v>39141</v>
       </c>
@@ -5239,7 +5241,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="39">
         <v>39172</v>
       </c>
@@ -5263,7 +5265,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="39"/>
       <c r="B170" s="20" t="s">
         <v>46</v>
@@ -5283,7 +5285,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="39">
         <v>39202</v>
       </c>
@@ -5303,7 +5305,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="39">
         <v>39233</v>
       </c>
@@ -5323,7 +5325,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="39">
         <v>39263</v>
       </c>
@@ -5343,7 +5345,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="39">
         <v>39294</v>
       </c>
@@ -5363,7 +5365,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="39">
         <v>39325</v>
       </c>
@@ -5383,7 +5385,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="39">
         <v>39355</v>
       </c>
@@ -5409,7 +5411,7 @@
         <v>39182</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="39">
         <v>39386</v>
       </c>
@@ -5435,7 +5437,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="39">
         <v>39416</v>
       </c>
@@ -5461,7 +5463,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="39"/>
       <c r="B179" s="20" t="s">
         <v>86</v>
@@ -5483,7 +5485,7 @@
         <v>39367</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="39">
         <v>39447</v>
       </c>
@@ -5507,7 +5509,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="47" t="s">
         <v>116</v>
       </c>
@@ -5525,7 +5527,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="39">
         <v>39478</v>
       </c>
@@ -5545,7 +5547,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="39">
         <v>39507</v>
       </c>
@@ -5565,7 +5567,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="39">
         <v>39538</v>
       </c>
@@ -5589,7 +5591,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="39">
         <v>39568</v>
       </c>
@@ -5609,7 +5611,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="39">
         <v>39599</v>
       </c>
@@ -5633,7 +5635,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="39">
         <v>39629</v>
       </c>
@@ -5653,7 +5655,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="39">
         <v>39660</v>
       </c>
@@ -5673,7 +5675,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="39">
         <v>39691</v>
       </c>
@@ -5693,7 +5695,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="39">
         <v>39721</v>
       </c>
@@ -5719,7 +5721,7 @@
         <v>39761</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="39">
         <v>39752</v>
       </c>
@@ -5739,7 +5741,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="39">
         <v>39782</v>
       </c>
@@ -5765,7 +5767,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="39">
         <v>39813</v>
       </c>
@@ -5785,7 +5787,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="47" t="s">
         <v>120</v>
       </c>
@@ -5803,7 +5805,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="39">
         <v>39844</v>
       </c>
@@ -5827,7 +5829,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="39">
         <v>39872</v>
       </c>
@@ -5851,7 +5853,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="39">
         <v>39903</v>
       </c>
@@ -5875,7 +5877,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="39">
         <v>39933</v>
       </c>
@@ -5899,7 +5901,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="39">
         <v>39964</v>
       </c>
@@ -5919,7 +5921,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="39">
         <v>39994</v>
       </c>
@@ -5943,7 +5945,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="39">
         <v>40025</v>
       </c>
@@ -5963,7 +5965,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="39">
         <v>40056</v>
       </c>
@@ -5983,7 +5985,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="39">
         <v>40086</v>
       </c>
@@ -6007,7 +6009,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="39">
         <v>40117</v>
       </c>
@@ -6027,7 +6029,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="39">
         <v>40147</v>
       </c>
@@ -6053,7 +6055,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="39"/>
       <c r="B206" s="20" t="s">
         <v>128</v>
@@ -6073,7 +6075,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="39">
         <v>40178</v>
       </c>
@@ -6097,7 +6099,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="47" t="s">
         <v>129</v>
       </c>
@@ -6115,7 +6117,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="39">
         <v>40209</v>
       </c>
@@ -6135,7 +6137,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="39">
         <v>40237</v>
       </c>
@@ -6159,7 +6161,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="39">
         <v>40268</v>
       </c>
@@ -6185,7 +6187,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="39"/>
       <c r="B212" s="20" t="s">
         <v>133</v>
@@ -6205,7 +6207,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="39">
         <v>40298</v>
       </c>
@@ -6229,7 +6231,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="39">
         <v>40329</v>
       </c>
@@ -6253,7 +6255,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="39">
         <v>40359</v>
       </c>
@@ -6279,7 +6281,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="39"/>
       <c r="B216" s="20" t="s">
         <v>137</v>
@@ -6299,7 +6301,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="39">
         <v>40390</v>
       </c>
@@ -6323,7 +6325,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="39">
         <v>40421</v>
       </c>
@@ -6347,7 +6349,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="39">
         <v>40451</v>
       </c>
@@ -6371,7 +6373,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="39">
         <v>40482</v>
       </c>
@@ -6397,7 +6399,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="39"/>
       <c r="B221" s="20" t="s">
         <v>50</v>
@@ -6419,7 +6421,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="39"/>
       <c r="B222" s="20" t="s">
         <v>143</v>
@@ -6439,7 +6441,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="39">
         <v>40512</v>
       </c>
@@ -6459,7 +6461,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="39">
         <v>40543</v>
       </c>
@@ -6483,7 +6485,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="47" t="s">
         <v>145</v>
       </c>
@@ -6501,7 +6503,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="39">
         <v>40574</v>
       </c>
@@ -6525,7 +6527,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="39">
         <v>40602</v>
       </c>
@@ -6549,7 +6551,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="39">
         <v>40633</v>
       </c>
@@ -6573,7 +6575,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="39"/>
       <c r="B229" s="20" t="s">
         <v>148</v>
@@ -6593,7 +6595,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="39">
         <v>40663</v>
       </c>
@@ -6617,7 +6619,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="39">
         <v>40694</v>
       </c>
@@ -6641,7 +6643,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="39">
         <v>40724</v>
       </c>
@@ -6665,7 +6667,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="39">
         <v>40755</v>
       </c>
@@ -6689,7 +6691,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="39">
         <v>40786</v>
       </c>
@@ -6713,7 +6715,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="39">
         <v>40816</v>
       </c>
@@ -6737,7 +6739,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="39">
         <v>40847</v>
       </c>
@@ -6763,7 +6765,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="39"/>
       <c r="B237" s="20" t="s">
         <v>156</v>
@@ -6783,7 +6785,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="39">
         <v>40877</v>
       </c>
@@ -6807,7 +6809,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="39">
         <v>40908</v>
       </c>
@@ -6827,7 +6829,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="47" t="s">
         <v>158</v>
       </c>
@@ -6845,7 +6847,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="39">
         <v>40939</v>
       </c>
@@ -6865,7 +6867,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="39">
         <v>40968</v>
       </c>
@@ -6885,7 +6887,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="39">
         <v>40999</v>
       </c>
@@ -6909,7 +6911,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="39">
         <v>41029</v>
       </c>
@@ -6929,7 +6931,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="39">
         <v>41060</v>
       </c>
@@ -6949,7 +6951,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="39">
         <v>41090</v>
       </c>
@@ -6969,7 +6971,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="39">
         <v>41121</v>
       </c>
@@ -6989,7 +6991,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="39">
         <v>41152</v>
       </c>
@@ -7009,7 +7011,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="39">
         <v>41182</v>
       </c>
@@ -7035,7 +7037,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="39">
         <v>41213</v>
       </c>
@@ -7055,7 +7057,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="39">
         <v>41243</v>
       </c>
@@ -7075,7 +7077,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="39">
         <v>41274</v>
       </c>
@@ -7095,7 +7097,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="47" t="s">
         <v>162</v>
       </c>
@@ -7113,7 +7115,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="39">
         <v>41305</v>
       </c>
@@ -7139,7 +7141,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="39">
         <v>41333</v>
       </c>
@@ -7163,7 +7165,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="39">
         <v>41364</v>
       </c>
@@ -7189,7 +7191,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="39">
         <v>41394</v>
       </c>
@@ -7209,7 +7211,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="39">
         <v>41425</v>
       </c>
@@ -7229,7 +7231,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="39">
         <v>41455</v>
       </c>
@@ -7249,7 +7251,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="39">
         <v>41486</v>
       </c>
@@ -7275,7 +7277,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="39">
         <v>41517</v>
       </c>
@@ -7301,7 +7303,7 @@
         <v>41494</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="39">
         <v>41547</v>
       </c>
@@ -7327,7 +7329,7 @@
         <v>41373</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="39"/>
       <c r="B263" s="20" t="s">
         <v>166</v>
@@ -7349,7 +7351,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="39">
         <v>41578</v>
       </c>
@@ -7369,7 +7371,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="39">
         <v>41608</v>
       </c>
@@ -7393,7 +7395,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="39">
         <v>41639</v>
       </c>
@@ -7413,7 +7415,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="47" t="s">
         <v>169</v>
       </c>
@@ -7431,7 +7433,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="39">
         <v>41670</v>
       </c>
@@ -7455,7 +7457,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="39">
         <v>41698</v>
       </c>
@@ -7475,7 +7477,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="39">
         <v>41729</v>
       </c>
@@ -7495,7 +7497,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="39">
         <v>41759</v>
       </c>
@@ -7515,7 +7517,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="39">
         <v>41790</v>
       </c>
@@ -7535,7 +7537,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="39">
         <v>41820</v>
       </c>
@@ -7555,7 +7557,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="39">
         <v>41851</v>
       </c>
@@ -7575,7 +7577,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="39">
         <v>41882</v>
       </c>
@@ -7595,7 +7597,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="39">
         <v>41912</v>
       </c>
@@ -7615,7 +7617,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="39">
         <v>41943</v>
       </c>
@@ -7641,7 +7643,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="39">
         <v>41973</v>
       </c>
@@ -7661,7 +7663,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="39">
         <v>42004</v>
       </c>
@@ -7681,7 +7683,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="47" t="s">
         <v>172</v>
       </c>
@@ -7699,7 +7701,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="39">
         <v>42035</v>
       </c>
@@ -7719,7 +7721,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="39">
         <v>42063</v>
       </c>
@@ -7739,7 +7741,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="39">
         <v>42094</v>
       </c>
@@ -7763,7 +7765,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="39"/>
       <c r="B284" s="20" t="s">
         <v>174</v>
@@ -7783,7 +7785,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="39">
         <v>42124</v>
       </c>
@@ -7807,7 +7809,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="39">
         <v>42155</v>
       </c>
@@ -7831,7 +7833,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="39">
         <v>42185</v>
       </c>
@@ -7851,7 +7853,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="39">
         <v>42216</v>
       </c>
@@ -7871,7 +7873,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="39">
         <v>42247</v>
       </c>
@@ -7891,7 +7893,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="39">
         <v>42277</v>
       </c>
@@ -7911,7 +7913,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="39">
         <v>42308</v>
       </c>
@@ -7931,7 +7933,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="39">
         <v>42338</v>
       </c>
@@ -7955,7 +7957,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="39">
         <v>42369</v>
       </c>
@@ -7979,7 +7981,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="47" t="s">
         <v>179</v>
       </c>
@@ -7997,7 +7999,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="39">
         <v>42400</v>
       </c>
@@ -8021,7 +8023,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="39">
         <v>42429</v>
       </c>
@@ -8045,7 +8047,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="39"/>
       <c r="B297" s="20" t="s">
         <v>182</v>
@@ -8065,7 +8067,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="39">
         <v>42460</v>
       </c>
@@ -8089,7 +8091,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="39">
         <v>42490</v>
       </c>
@@ -8109,7 +8111,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="39">
         <v>42521</v>
       </c>
@@ -8129,7 +8131,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="39">
         <v>42551</v>
       </c>
@@ -8149,7 +8151,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="39">
         <v>42582</v>
       </c>
@@ -8169,7 +8171,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="39">
         <v>42613</v>
       </c>
@@ -8189,7 +8191,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="39">
         <v>42643</v>
       </c>
@@ -8209,7 +8211,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="39">
         <v>42674</v>
       </c>
@@ -8235,7 +8237,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="39">
         <v>42704</v>
       </c>
@@ -8255,7 +8257,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="39">
         <v>42735</v>
       </c>
@@ -8279,7 +8281,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="47" t="s">
         <v>186</v>
       </c>
@@ -8297,7 +8299,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="39">
         <v>42766</v>
       </c>
@@ -8317,7 +8319,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="39">
         <v>42794</v>
       </c>
@@ -8341,7 +8343,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="39">
         <v>42825</v>
       </c>
@@ -8361,7 +8363,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="39">
         <v>42855</v>
       </c>
@@ -8381,7 +8383,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="39">
         <v>42886</v>
       </c>
@@ -8401,7 +8403,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="39">
         <v>42916</v>
       </c>
@@ -8421,7 +8423,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="39">
         <v>42947</v>
       </c>
@@ -8441,7 +8443,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="39">
         <v>42978</v>
       </c>
@@ -8461,7 +8463,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="39">
         <v>43008</v>
       </c>
@@ -8481,7 +8483,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="39">
         <v>43039</v>
       </c>
@@ -8501,7 +8503,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="39">
         <v>43069</v>
       </c>
@@ -8527,7 +8529,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="39">
         <v>43100</v>
       </c>
@@ -8547,7 +8549,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="47" t="s">
         <v>189</v>
       </c>
@@ -8567,7 +8569,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="39">
         <v>43131</v>
       </c>
@@ -8587,7 +8589,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="39">
         <v>43159</v>
       </c>
@@ -8607,7 +8609,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="39">
         <v>43190</v>
       </c>
@@ -8631,7 +8633,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="39">
         <v>43220</v>
       </c>
@@ -8651,7 +8653,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="39">
         <v>43251</v>
       </c>
@@ -8671,7 +8673,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="39">
         <v>43281</v>
       </c>
@@ -8697,7 +8699,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="39">
         <v>43312</v>
       </c>
@@ -8717,7 +8719,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="39">
         <v>43343</v>
       </c>
@@ -8737,7 +8739,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="39">
         <v>43373</v>
       </c>
@@ -8757,7 +8759,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39">
         <v>43404</v>
       </c>
@@ -8777,7 +8779,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="39">
         <v>43434</v>
       </c>
@@ -8797,7 +8799,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="39">
         <v>43465</v>
       </c>
@@ -8821,7 +8823,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="47" t="s">
         <v>59</v>
       </c>
@@ -8841,7 +8843,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="39">
         <v>43496</v>
       </c>
@@ -8861,7 +8863,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="39">
         <v>43524</v>
       </c>
@@ -8881,7 +8883,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="39">
         <v>43555</v>
       </c>
@@ -8905,7 +8907,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="39">
         <v>43585</v>
       </c>
@@ -8925,7 +8927,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="39">
         <v>43616</v>
       </c>
@@ -8951,7 +8953,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="39">
         <v>43646</v>
       </c>
@@ -8971,7 +8973,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39">
         <v>43677</v>
       </c>
@@ -8991,7 +8993,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39">
         <v>43708</v>
       </c>
@@ -9011,7 +9013,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39">
         <v>43738</v>
       </c>
@@ -9037,7 +9039,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39">
         <v>43769</v>
       </c>
@@ -9057,7 +9059,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="39">
         <v>43799</v>
       </c>
@@ -9077,7 +9079,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="39">
         <v>43830</v>
       </c>
@@ -9103,7 +9105,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="47" t="s">
         <v>196</v>
       </c>
@@ -9121,7 +9123,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="39">
         <v>43861</v>
       </c>
@@ -9141,7 +9143,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39">
         <v>43890</v>
       </c>
@@ -9165,7 +9167,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39"/>
       <c r="B350" s="20" t="s">
         <v>44</v>
@@ -9185,7 +9187,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="39">
         <v>43921</v>
       </c>
@@ -9209,7 +9211,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39">
         <v>43951</v>
       </c>
@@ -9229,7 +9231,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39">
         <v>43982</v>
       </c>
@@ -9249,7 +9251,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39">
         <v>44012</v>
       </c>
@@ -9273,7 +9275,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39">
         <v>44043</v>
       </c>
@@ -9293,7 +9295,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="51"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39">
         <v>44074</v>
       </c>
@@ -9313,7 +9315,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39">
         <v>44104</v>
       </c>
@@ -9333,7 +9335,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="39">
         <v>44135</v>
       </c>
@@ -9353,7 +9355,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39">
         <v>44165</v>
       </c>
@@ -9373,7 +9375,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="39">
         <v>44196</v>
       </c>
@@ -9397,7 +9399,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="47" t="s">
         <v>51</v>
       </c>
@@ -9415,7 +9417,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39">
         <v>44227</v>
       </c>
@@ -9439,7 +9441,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39">
         <v>44255</v>
       </c>
@@ -9459,7 +9461,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="39">
         <v>44286</v>
       </c>
@@ -9479,7 +9481,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39">
         <v>44316</v>
       </c>
@@ -9499,7 +9501,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39">
         <v>44347</v>
       </c>
@@ -9519,7 +9521,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39">
         <v>44377</v>
       </c>
@@ -9539,7 +9541,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="51"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39">
         <v>44408</v>
       </c>
@@ -9559,7 +9561,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39">
         <v>44439</v>
       </c>
@@ -9579,7 +9581,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39">
         <v>44469</v>
       </c>
@@ -9599,7 +9601,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
         <v>44500</v>
       </c>
@@ -9619,7 +9621,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="39">
         <v>44530</v>
       </c>
@@ -9639,7 +9641,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39">
         <v>44561</v>
       </c>
@@ -9659,7 +9661,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="47" t="s">
         <v>52</v>
       </c>
@@ -9677,7 +9679,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39">
         <v>44592</v>
       </c>
@@ -9697,7 +9699,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39">
         <v>44620</v>
       </c>
@@ -9717,7 +9719,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39">
         <v>44651</v>
       </c>
@@ -9737,7 +9739,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="39">
         <v>44681</v>
       </c>
@@ -9757,7 +9759,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39">
         <v>44712</v>
       </c>
@@ -9777,7 +9779,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="39">
         <v>44742</v>
       </c>
@@ -9797,7 +9799,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="39">
         <v>44773</v>
       </c>
@@ -9817,7 +9819,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39">
         <v>44804</v>
       </c>
@@ -9843,7 +9845,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39"/>
       <c r="B383" s="20" t="s">
         <v>53</v>
@@ -9865,7 +9867,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39">
         <v>44834</v>
       </c>
@@ -9891,7 +9893,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39"/>
       <c r="B385" s="20" t="s">
         <v>204</v>
@@ -9913,7 +9915,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39">
         <v>44865</v>
       </c>
@@ -9939,7 +9941,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39">
         <v>44895</v>
       </c>
@@ -9959,7 +9961,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39">
         <v>44926</v>
       </c>
@@ -9980,7 +9982,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="47" t="s">
         <v>203</v>
       </c>
@@ -9995,7 +9997,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39">
         <v>44957</v>
       </c>
@@ -10012,7 +10014,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39">
         <v>44985</v>
       </c>
@@ -10029,7 +10031,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39">
         <v>45016</v>
       </c>
@@ -10046,7 +10048,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="39">
         <v>45046</v>
       </c>
@@ -10063,7 +10065,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39">
         <v>45077</v>
       </c>
@@ -10086,7 +10088,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39">
         <v>45107</v>
       </c>
@@ -10103,12 +10105,14 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39">
         <v>45138</v>
       </c>
       <c r="B396" s="20"/>
-      <c r="C396" s="13"/>
+      <c r="C396" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D396" s="38"/>
       <c r="E396" s="9"/>
       <c r="F396" s="20"/>
@@ -10118,22 +10122,28 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39">
         <v>45169</v>
       </c>
-      <c r="B397" s="20"/>
+      <c r="B397" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C397" s="13"/>
       <c r="D397" s="38"/>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
       <c r="G397" s="13"/>
-      <c r="H397" s="38"/>
+      <c r="H397" s="38">
+        <v>2</v>
+      </c>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
-      <c r="K397" s="20"/>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K397" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39">
         <v>45199</v>
       </c>
@@ -10148,7 +10158,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39">
         <v>45230</v>
       </c>
@@ -10163,7 +10173,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="39">
         <v>45260</v>
       </c>
@@ -10178,7 +10188,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39">
         <v>45291</v>
       </c>
@@ -10193,7 +10203,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39">
         <v>45322</v>
       </c>
@@ -10208,7 +10218,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39">
         <v>45351</v>
       </c>
@@ -10223,7 +10233,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="39"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10239,7 +10249,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10255,7 +10265,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="39"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10271,7 +10281,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="39"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10287,7 +10297,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="39"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10303,7 +10313,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="39"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10319,7 +10329,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="39"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10335,7 +10345,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="39"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10351,7 +10361,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="39"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10367,7 +10377,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="39"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10383,7 +10393,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="39"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10399,7 +10409,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="39"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10415,7 +10425,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="39"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10431,7 +10441,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10447,7 +10457,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10463,7 +10473,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10479,7 +10489,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10495,7 +10505,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10511,7 +10521,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10527,7 +10537,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10543,7 +10553,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -10559,7 +10569,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -10575,7 +10585,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -10591,7 +10601,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -10607,7 +10617,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -10623,7 +10633,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -10639,7 +10649,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -10655,7 +10665,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="39"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -10671,7 +10681,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -10687,7 +10697,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -10703,7 +10713,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -10719,7 +10729,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -10735,7 +10745,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -10751,7 +10761,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -10767,7 +10777,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -10783,7 +10793,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -10799,7 +10809,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -10815,7 +10825,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -10831,7 +10841,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -10847,7 +10857,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -10863,7 +10873,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -10879,7 +10889,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -10895,7 +10905,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -10911,7 +10921,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -10927,7 +10937,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -10943,7 +10953,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -10959,7 +10969,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -10975,7 +10985,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -10991,7 +11001,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11007,7 +11017,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11023,7 +11033,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11039,7 +11049,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11055,7 +11065,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="39"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -11071,7 +11081,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="39"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11087,7 +11097,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="39"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11103,7 +11113,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="15"/>
       <c r="C459" s="41"/>
@@ -11134,10 +11144,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11160,28 +11170,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -11194,7 +11204,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11223,7 +11233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.66700000000000004</v>
       </c>
@@ -11253,17 +11263,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -11284,7 +11294,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -11311,7 +11321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -11337,7 +11347,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -11363,7 +11373,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -11389,7 +11399,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -11415,7 +11425,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -11441,7 +11451,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -11467,7 +11477,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -11493,7 +11503,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -11513,7 +11523,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -11533,7 +11543,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -11553,7 +11563,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -11574,7 +11584,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -11595,7 +11605,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -11616,7 +11626,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -11637,7 +11647,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -11658,7 +11668,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -11679,7 +11689,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -11700,7 +11710,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -11721,7 +11731,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -11742,7 +11752,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -11763,7 +11773,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -11784,7 +11794,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -11805,7 +11815,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -11826,7 +11836,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -11847,7 +11857,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -11868,7 +11878,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -11889,7 +11899,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -11910,7 +11920,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -11931,7 +11941,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -11952,7 +11962,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -11973,7 +11983,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -11982,7 +11992,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -11991,7 +12001,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -12000,7 +12010,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -12009,7 +12019,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -12018,7 +12028,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -12027,7 +12037,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -12036,7 +12046,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -12045,7 +12055,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -12054,7 +12064,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -12063,7 +12073,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -12072,7 +12082,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -12081,7 +12091,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -12090,7 +12100,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -12099,7 +12109,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -12108,7 +12118,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -12117,7 +12127,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -12126,7 +12136,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -12135,7 +12145,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -12144,7 +12154,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -12153,7 +12163,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -12162,7 +12172,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -12171,7 +12181,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -12180,7 +12190,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -12189,7 +12199,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -12198,7 +12208,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -12207,7 +12217,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -12216,7 +12226,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -12225,7 +12235,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -12234,7 +12244,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
